--- a/branches/master/StructureDefinition-CrossBorderMedicationStatement.xlsx
+++ b/branches/master/StructureDefinition-CrossBorderMedicationStatement.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T16:33:31+00:00</t>
+    <t>2021-11-22T16:35:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-CrossBorderMedicationStatement.xlsx
+++ b/branches/master/StructureDefinition-CrossBorderMedicationStatement.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$28</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T16:35:05+00:00</t>
+    <t>2021-11-23T10:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -446,10 +449,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>RelatedMedication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/RelatedMedication}
+    <t>relatedMedication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/relatedMedication}
 </t>
   </si>
   <si>
@@ -1009,6 +1012,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1199,7 +1217,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.59375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1358,7 +1376,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -1469,7 +1487,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -1580,7 +1598,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -1689,7 +1707,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -1800,7 +1818,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -1911,7 +1929,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -2022,7 +2040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -2133,7 +2151,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -2258,7 +2276,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -2351,7 +2369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>141</v>
       </c>
@@ -2464,7 +2482,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>148</v>
       </c>
@@ -2575,7 +2593,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>156</v>
       </c>
@@ -2686,7 +2704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>163</v>
       </c>
@@ -2797,7 +2815,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>170</v>
       </c>
@@ -2908,7 +2926,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>180</v>
       </c>
@@ -3019,7 +3037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>190</v>
       </c>
@@ -3128,7 +3146,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>197</v>
       </c>
@@ -3239,7 +3257,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>207</v>
       </c>
@@ -3348,7 +3366,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>215</v>
       </c>
@@ -3457,7 +3475,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>221</v>
       </c>
@@ -3568,7 +3586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>229</v>
       </c>
@@ -3677,7 +3695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>235</v>
       </c>
@@ -3786,7 +3804,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>241</v>
       </c>
@@ -3897,7 +3915,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>247</v>
       </c>
@@ -4008,7 +4026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>256</v>
       </c>
@@ -4119,7 +4137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>263</v>
       </c>
@@ -4228,7 +4246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>269</v>
       </c>
@@ -4340,6 +4358,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM28">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI27">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>